--- a/public/test2.xlsx
+++ b/public/test2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -26,6 +26,69 @@
   </si>
   <si>
     <t>TimeStamp</t>
+  </si>
+  <si>
+    <t>Sophia</t>
+  </si>
+  <si>
+    <t>Eenter</t>
+  </si>
+  <si>
+    <t>10:10</t>
+  </si>
+  <si>
+    <t>2020-1-23 15:14.24</t>
+  </si>
+  <si>
+    <t>Yura</t>
+  </si>
+  <si>
+    <t>11:10</t>
+  </si>
+  <si>
+    <t>2020-1-23 15:14.38</t>
+  </si>
+  <si>
+    <t>Vanya</t>
+  </si>
+  <si>
+    <t>12:10</t>
+  </si>
+  <si>
+    <t>2020-1-23 15:14.56</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>13:10</t>
+  </si>
+  <si>
+    <t>2020-1-23 15:15.8</t>
+  </si>
+  <si>
+    <t>14:10</t>
+  </si>
+  <si>
+    <t>2020-1-23 15:15.24</t>
+  </si>
+  <si>
+    <t>2020-1-23 15:15.32</t>
+  </si>
+  <si>
+    <t>2020-1-23 15:15.33</t>
+  </si>
+  <si>
+    <t>2020-1-23 15:15.34</t>
+  </si>
+  <si>
+    <t>Nazar</t>
+  </si>
+  <si>
+    <t>08:12</t>
+  </si>
+  <si>
+    <t>2020-2-2 9:13.47</t>
   </si>
 </sst>
 </file>
@@ -402,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E20"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
@@ -428,6 +491,326 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>412</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>412</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>412</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>412</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>412</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>412</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>412</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>412</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>412</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>412</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
